--- a/vizsgaremek db.xlsx
+++ b/vizsgaremek db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasznalo\OneDrive\Asztali gép\VizsgaRemek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E357F1C8-9FDC-4794-9725-FE661450419B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="3"/>
+    <workbookView minimized="1" xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iskola" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="190">
   <si>
     <t>Budapesti Fazekas Mihály Gyakorló Általános Iskola és Gimnázium</t>
   </si>
@@ -5440,12 +5446,15 @@
   </si>
   <si>
     <t>["Ctype", "0-5 Év", "6-12 Év", "Csúszda", "Mászóka", "Homokozó", "Kültéri", "Beltéri", "Multifunkcionális", "Vízi Játszótér", "Biztonságos", "Kalandpark", "Zöldterület"]</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -5635,6 +5644,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5681,7 +5698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5713,9 +5730,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5747,6 +5782,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5922,11 +5975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6099,16 +6152,25 @@
       </c>
     </row>
     <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -6117,86 +6179,137 @@
       </c>
     </row>
     <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5">
+      <c r="A26">
+        <v>5</v>
+      </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5">
+      <c r="A27">
+        <v>6</v>
+      </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
+      <c r="A28">
+        <v>7</v>
+      </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
+      <c r="A29">
+        <v>8</v>
+      </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5">
+      <c r="A30">
+        <v>9</v>
+      </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
+      <c r="A31">
+        <v>10</v>
+      </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5">
+      <c r="A32">
+        <v>11</v>
+      </c>
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>12</v>
+      </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>13</v>
+      </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>14</v>
+      </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>15</v>
+      </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>16</v>
+      </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>17</v>
+      </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>18</v>
+      </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>19</v>
+      </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>20</v>
+      </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -6208,11 +6321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6385,6 +6498,9 @@
       </c>
     </row>
     <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
@@ -6393,132 +6509,189 @@
       </c>
     </row>
     <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
+      <c r="A25">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3">
+      <c r="A26">
+        <v>5</v>
+      </c>
       <c r="B26" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
+      <c r="A27">
+        <v>6</v>
+      </c>
       <c r="B27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
+      <c r="A28">
+        <v>7</v>
+      </c>
       <c r="B28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3">
+      <c r="A29">
+        <v>8</v>
+      </c>
       <c r="B29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
+      <c r="A30">
+        <v>9</v>
+      </c>
       <c r="B30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3">
+      <c r="A31">
+        <v>10</v>
+      </c>
       <c r="B31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
+      <c r="A32">
+        <v>11</v>
+      </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>12</v>
+      </c>
       <c r="B33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>13</v>
+      </c>
       <c r="B34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>14</v>
+      </c>
       <c r="B35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>15</v>
+      </c>
       <c r="B36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>16</v>
+      </c>
       <c r="B37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>17</v>
+      </c>
       <c r="B38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>18</v>
+      </c>
       <c r="B39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>19</v>
+      </c>
       <c r="B40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>20</v>
+      </c>
       <c r="B41" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://szallas.hu/programok/erhardt-etterem-sopron-p9093?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1r7eu6j*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A2" r:id="rId2" display="https://szallas.hu/programok/roxy-etterem-siofok-p9356?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1r7eu6j*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A3" r:id="rId3" display="https://szallas.hu/programok/platan-bisztro-tata-p9305?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A4" r:id="rId4" display="https://szallas.hu/programok/anyukam-mondta-encs-p9247?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A5" r:id="rId5" display="https://szallas.hu/programok/kistucsok-etterem-balatonszemes-p531?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A6" r:id="rId6" display="https://szallas.hu/programok/sauska-48-villany-p8975?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A7" r:id="rId7" display="https://szallas.hu/programok/primas-pince-etterem-es-boralagut-esztergom-p21608?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A8" r:id="rId8" display="https://szallas.hu/programok/pajta-oriszentpeter-p9269?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A9" r:id="rId9" display="https://szallas.hu/programok/bistro-sparhelt-balatonfured-p19298?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A11" r:id="rId10" display="https://szallas.hu/programok/vegallomas-bistro-wine-miskolc-p2632?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A12" r:id="rId11" display="https://szallas.hu/programok/chloe-new-yorkban-nyiregyhaza-p9471?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A13" r:id="rId12" display="https://szallas.hu/programok/munkacsy-etterem-bar-bekescsaba-p7414?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A14" r:id="rId13" display="https://szallas.hu/programok/macok-eger-p8992?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A15" r:id="rId14" display="https://szallas.hu/programok/varkonyi-bisztro-es-bar-gyula-p9268?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A16" r:id="rId15" display="https://szallas.hu/programok/elefantos-etterem-es-pizzeria-pecs-p5328?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A17" r:id="rId16" display="https://szallas.hu/programok/taberna-infinito-kisapati-p9183?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A18" r:id="rId17" display="https://szallas.hu/programok/patkos-csarda-tiszafured-p2977?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A19" r:id="rId18" display="https://szallas.hu/programok/aranyosidombi-udvarhaz-poroszlo-p2983?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
-    <hyperlink ref="A20" r:id="rId19" display="https://szallas.hu/programok/regi-posta-etterem-debrecen-p9214?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA."/>
+    <hyperlink ref="A1" r:id="rId1" display="https://szallas.hu/programok/erhardt-etterem-sopron-p9093?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1r7eu6j*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://szallas.hu/programok/roxy-etterem-siofok-p9356?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1r7eu6j*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://szallas.hu/programok/platan-bisztro-tata-p9305?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://szallas.hu/programok/anyukam-mondta-encs-p9247?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://szallas.hu/programok/kistucsok-etterem-balatonszemes-p531?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://szallas.hu/programok/sauska-48-villany-p8975?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://szallas.hu/programok/primas-pince-etterem-es-boralagut-esztergom-p21608?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://szallas.hu/programok/pajta-oriszentpeter-p9269?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://szallas.hu/programok/bistro-sparhelt-balatonfured-p19298?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://szallas.hu/programok/vegallomas-bistro-wine-miskolc-p2632?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://szallas.hu/programok/chloe-new-yorkban-nyiregyhaza-p9471?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://szallas.hu/programok/munkacsy-etterem-bar-bekescsaba-p7414?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://szallas.hu/programok/macok-eger-p8992?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://szallas.hu/programok/varkonyi-bisztro-es-bar-gyula-p9268?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://szallas.hu/programok/elefantos-etterem-es-pizzeria-pecs-p5328?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*1k7zm46*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://szallas.hu/programok/taberna-infinito-kisapati-p9183?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://szallas.hu/programok/patkos-csarda-tiszafured-p2977?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://szallas.hu/programok/aranyosidombi-udvarhaz-poroszlo-p2983?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://szallas.hu/programok/regi-posta-etterem-debrecen-p9214?utm_source=blog.szallas.hu&amp;utm_medium=link&amp;utm_campaign=20220128_top_15_videki_etterem_author_gk&amp;_gl=1*rxkx7m*_gcl_au*NTQ1NTI5NjA0LjE3NDIyMjE0NjA.*FPAU*NTQ1NTI5NjA0LjE3NDIyMjE0NjA." xr:uid="{00000000-0004-0000-0100-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6749,8 +6922,166 @@
       </c>
     </row>
     <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
       <c r="C24" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6759,18 +7090,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.7109375" customWidth="1"/>
-    <col min="2" max="2" width="245.140625" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="3" max="3" width="115.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
@@ -6795,7 +7126,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -6891,24 +7222,105 @@
         <v>188</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/"/>
-    <hyperlink ref="B7" r:id="rId11" display="https://welovebudapest.com/hely/benczur-kerti-jatszoter"/>
-    <hyperlink ref="B9" r:id="rId12" display="https://welovebudapest.com/cikk/2021/6/2/szabadido-tematikus-jatszoterrel-es-szabadteri-fitneszparkkal-gazdagodott-a-felujitott-huvosvolgyi-nagyret"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://welovebudapest.com/toplista/2023/06/12/szabadido-a-10-legjobb-jatszoter-ami-nelkul-nem-mulhat-el-a-nyari-szunet/" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" display="https://welovebudapest.com/hely/benczur-kerti-jatszoter" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B9" r:id="rId12" display="https://welovebudapest.com/cikk/2021/6/2/szabadido-tematikus-jatszoterrel-es-szabadteri-fitneszparkkal-gazdagodott-a-felujitott-huvosvolgyi-nagyret" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
